--- a/course_materials/Intro_Bayes_Course_course_assessment_plan_SP20.xlsx
+++ b/course_materials/Intro_Bayes_Course_course_assessment_plan_SP20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/Bayes_course/git_public/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90611C9-2048-CE48-A3D3-8E01C4797771}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B02DF-A215-954E-AB0E-63E1CF94A89E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28240" xr2:uid="{817317F3-93E4-1348-8419-7945FAAB9BF9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Course Assessment</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Midterm 3</t>
-  </si>
-  <si>
-    <t>Midterm 4</t>
   </si>
   <si>
     <t>Assignment 12 (Ch. 20)</t>
@@ -498,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED44ACAA-9F95-1041-930E-34B16F49EBA3}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,16 +556,16 @@
         <v>20</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I22" si="0">SUM(B2:H2)</f>
+        <f t="shared" ref="I2:I21" si="0">SUM(B2:H2)</f>
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <f>I2/I23*100</f>
-        <v>2.5</v>
+        <f>I2/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K2" s="1">
-        <f>I2/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I2/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -583,12 +580,12 @@
         <v>20</v>
       </c>
       <c r="J3" s="1">
-        <f>I3/I23*100</f>
-        <v>2.5</v>
+        <f>I3/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K3" s="1">
-        <f>I3/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I3/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -606,12 +603,12 @@
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <f>I4/I23*100</f>
-        <v>2.5</v>
+        <f>I4/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K4" s="1">
-        <f>I4/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I4/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -626,12 +623,12 @@
         <v>20</v>
       </c>
       <c r="J5" s="1">
-        <f>I5/I23*100</f>
-        <v>2.5</v>
+        <f>I5/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K5" s="1">
-        <f>I5/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I5/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -649,12 +646,12 @@
         <v>20</v>
       </c>
       <c r="J6" s="1">
-        <f>I6/I23*100</f>
-        <v>2.5</v>
+        <f>I6/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K6" s="1">
-        <f>I6/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I6/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -672,12 +669,12 @@
         <v>20</v>
       </c>
       <c r="J7" s="1">
-        <f>I7/I23*100</f>
-        <v>2.5</v>
+        <f>I7/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K7" s="1">
-        <f>I7/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I7/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -695,12 +692,12 @@
         <v>20</v>
       </c>
       <c r="J8" s="1">
-        <f>I8/I23*100</f>
-        <v>2.5</v>
+        <f>I8/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K8" s="1">
-        <f>I8/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I8/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -718,12 +715,12 @@
         <v>20</v>
       </c>
       <c r="J9" s="1">
-        <f>I9/I23*100</f>
-        <v>2.5</v>
+        <f>I9/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K9" s="1">
-        <f>I9/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I9/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -738,12 +735,12 @@
         <v>20</v>
       </c>
       <c r="J10" s="1">
-        <f>I10/I23*100</f>
-        <v>2.5</v>
+        <f>I10/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K10" s="1">
-        <f>I10/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I10/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -758,12 +755,12 @@
         <v>20</v>
       </c>
       <c r="J11" s="1">
-        <f>I11/I23*100</f>
-        <v>2.5</v>
+        <f>I11/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K11" s="1">
-        <f>I11/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I11/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -781,17 +778,17 @@
         <v>20</v>
       </c>
       <c r="J12" s="1">
-        <f>I12/I23*100</f>
-        <v>2.5</v>
+        <f>I12/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K12" s="1">
-        <f>I12/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I12/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -807,17 +804,17 @@
         <v>20</v>
       </c>
       <c r="J13" s="1">
-        <f>I13/I23*100</f>
-        <v>2.5</v>
+        <f>I13/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K13" s="1">
-        <f>I13/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I13/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -830,17 +827,17 @@
         <v>20</v>
       </c>
       <c r="J14" s="1">
-        <f>I14/I23*100</f>
-        <v>2.5</v>
+        <f>I14/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K14" s="1">
-        <f>I14/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I14/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -850,17 +847,17 @@
         <v>20</v>
       </c>
       <c r="J15" s="1">
-        <f>I15/I23*100</f>
-        <v>2.5</v>
+        <f>I15/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K15" s="1">
-        <f>I15/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I15/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -870,12 +867,12 @@
         <v>20</v>
       </c>
       <c r="J16" s="1">
-        <f>I16/I23*100</f>
-        <v>2.5</v>
+        <f>I16/I22*100</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="K16" s="1">
-        <f>I16/(I23-H22)*100</f>
-        <v>3.0769230769230771</v>
+        <f>I16/(I22-H21)*100</f>
+        <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -892,16 +889,15 @@
         <v>10</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J17" s="1">
-        <f>I17/I23*100</f>
-        <v>6.25</v>
+        <f>I17/I22*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="K17" s="1">
-        <f>I17/(I23-H22)*100</f>
-        <v>7.6923076923076925</v>
+        <f>I17/(I22-H21)*100</f>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -918,16 +914,15 @@
         <v>20</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J18" s="1">
-        <f>I18/I23*100</f>
-        <v>6.25</v>
+        <f>I18/I22*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="K18" s="1">
-        <f>I18/(I23-H22)*100</f>
-        <v>7.6923076923076925</v>
+        <f>I18/(I22-H21)*100</f>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -944,212 +939,176 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J19" s="1">
-        <f>I19/I23*100</f>
-        <v>6.25</v>
+        <f>I19/I22*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="K19" s="1">
-        <f>I19/(I23-H22)*100</f>
-        <v>7.6923076923076925</v>
+        <f>I19/(I22-H21)*100</f>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
         <v>30</v>
       </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
       <c r="G20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J20" s="1">
-        <f>I20/I23*100</f>
-        <v>6.25</v>
+        <f>I20/I22*100</f>
+        <v>20</v>
       </c>
       <c r="K20" s="1">
-        <f>I20/(I23-H22)*100</f>
-        <v>7.6923076923076925</v>
+        <f>I20/(I22-H21)*100</f>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>50</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>30</v>
-      </c>
-      <c r="G21">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>150</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="J21" s="1">
-        <f>I21/I23*100</f>
-        <v>18.75</v>
+        <f>I21/I22*100</f>
+        <v>20</v>
       </c>
       <c r="K21" s="1">
-        <f>I21/(I23-H22)*100</f>
-        <v>23.076923076923077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <f>SUM(B2:B21)</f>
+        <v>55</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:I22" si="1">SUM(C2:C21)</f>
+        <v>118</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>150</v>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>750</v>
       </c>
       <c r="J22" s="1">
-        <f>I22/I23*100</f>
-        <v>18.75</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
+        <f>I22/I22*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
-        <f>SUM(B2:B22)</f>
-        <v>60</v>
+        <f>(B22/I22)*100</f>
+        <v>7.333333333333333</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:I23" si="1">SUM(C2:C22)</f>
-        <v>128</v>
+        <f>(C22/I22)*100</f>
+        <v>15.733333333333333</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <f>(D22/I22)*100</f>
+        <v>24.266666666666666</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f>(E22/I22)*100</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>(F22/I22)*100</f>
+        <v>18.666666666666668</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
+        <f>(G22/I22)*100</f>
+        <v>10.666666666666668</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f>(H22/I22)*100</f>
+        <v>20</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="J23" s="1">
-        <f>I23/I23*100</f>
+        <f>(I22/I22)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
-        <f>(B23/I23)*100</f>
-        <v>7.5</v>
+        <f>(B22/(I22-I21))*100</f>
+        <v>9.1666666666666661</v>
       </c>
       <c r="C24" s="1">
-        <f>(C23/I23)*100</f>
-        <v>16</v>
+        <f>(C22/(I22-I21))*100</f>
+        <v>19.666666666666664</v>
       </c>
       <c r="D24" s="1">
-        <f>(D23/I23)*100</f>
-        <v>24</v>
+        <f>(D22/(I22-I21))*100</f>
+        <v>30.333333333333336</v>
       </c>
       <c r="E24" s="1">
-        <f>(E23/I23)*100</f>
-        <v>4.375</v>
+        <f>(E22/(I22-I21))*100</f>
+        <v>4.1666666666666661</v>
       </c>
       <c r="F24" s="1">
-        <f>(F23/I23)*100</f>
-        <v>18.75</v>
+        <f>(F22/(I22-I21))*100</f>
+        <v>23.333333333333332</v>
       </c>
       <c r="G24" s="1">
-        <f>(G23/I23)*100</f>
-        <v>10.625</v>
-      </c>
-      <c r="H24" s="1">
-        <f>(H23/I23)*100</f>
-        <v>18.75</v>
-      </c>
-      <c r="I24" s="1">
-        <f>(I23/I23)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1">
-        <f>(B23/(I23-I22))*100</f>
-        <v>9.2307692307692317</v>
-      </c>
-      <c r="C25" s="1">
-        <f>(C23/(I23-I22))*100</f>
-        <v>19.692307692307693</v>
-      </c>
-      <c r="D25" s="1">
-        <f>(D23/(I23-I22))*100</f>
-        <v>29.53846153846154</v>
-      </c>
-      <c r="E25" s="1">
-        <f>(E23/(I23-I22))*100</f>
-        <v>5.384615384615385</v>
-      </c>
-      <c r="F25" s="1">
-        <f>(F23/(I23-I22))*100</f>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="G25" s="1">
-        <f>(G23/(I23-I22))*100</f>
-        <v>13.076923076923078</v>
+        <f>(G22/(I22-I21))*100</f>
+        <v>13.333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/course_materials/Intro_Bayes_Course_course_assessment_plan_SP20.xlsx
+++ b/course_materials/Intro_Bayes_Course_course_assessment_plan_SP20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/OneDrive - University of Nevada, Reno/Teaching/Bayes_course/git_public/course_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B02DF-A215-954E-AB0E-63E1CF94A89E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DD905-D53E-F04A-9307-0E9BC9E38FE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34400" windowHeight="28240" xr2:uid="{817317F3-93E4-1348-8419-7945FAAB9BF9}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
